--- a/cluster/data test/dist-change-homer-nmdar-LTD-1.xlsx
+++ b/cluster/data test/dist-change-homer-nmdar-LTD-1.xlsx
@@ -370,836 +370,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073770EB-5B5F-46AE-B53D-B3D33A705CBE}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B103"/>
+      <selection sqref="A1:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1389.0698562958376</v>
       </c>
       <c r="B1">
         <v>1223.0774874910353</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>39.661576838990712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>696.76304162240797</v>
       </c>
       <c r="B2">
         <v>1534.934475439007</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>295.76621513053516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1061.4386584336778</v>
       </c>
       <c r="B3">
         <v>2857.5302838579128</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>74.733977165428001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>207.67966743175484</v>
       </c>
       <c r="B4">
         <v>176.14832610369822</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>126.88069883751206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>193.81404805884029</v>
       </c>
       <c r="B5">
         <v>525.23910332204878</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>130.20867875123534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>226.29039831285419</v>
       </c>
       <c r="B6">
         <v>613.89898374836889</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>430.88892641510722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>606.7665257748049</v>
       </c>
       <c r="B7">
         <v>2039.6163697882603</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>254.26403544915837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>358.9744914252272</v>
       </c>
       <c r="B8">
         <v>526.93212058745644</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>94.801936647429827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>498.2279899692187</v>
       </c>
       <c r="B9">
         <v>597.85022428746743</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>143.23278033753741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>147.42662371874152</v>
       </c>
       <c r="B10">
         <v>81.787067210443695</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>117.75149697655652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>143.04776038608716</v>
       </c>
       <c r="B11">
         <v>659.73295401570738</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>258.60655480161415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1081.2962608994649</v>
       </c>
       <c r="B12">
         <v>966.36590098315696</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>52.443698438959167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>230.68326000143503</v>
       </c>
       <c r="B13">
         <v>288.09561161949983</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>27.074246049955519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>187.1971926932643</v>
       </c>
       <c r="B14">
         <v>270.17774391044901</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>257.87275622842628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>852.61276843321548</v>
       </c>
       <c r="B15">
         <v>113.59477588227792</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>33.04314485073985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>543.93341736676871</v>
       </c>
       <c r="B16">
         <v>775.22199232436174</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>173.33989559288116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1300.4321414186261</v>
       </c>
       <c r="B17">
         <v>1185.4743611771423</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>208.17209941609539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81.569946270710886</v>
       </c>
       <c r="B18">
         <v>410.58065092528631</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>757.10632321431433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>221.49538579479983</v>
       </c>
       <c r="B19">
         <v>649.00703922639138</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>163.14034917521431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>288.00300420128519</v>
       </c>
       <c r="B20">
         <v>97.277264891771424</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>89.559845473220037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>244.57524045186426</v>
       </c>
       <c r="B21">
         <v>353.80154784844621</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>128.72229685243937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>271.99659395220868</v>
       </c>
       <c r="B22">
         <v>380.64512540687917</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>128.43969387593808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1125.5297705220089</v>
       </c>
       <c r="B23">
         <v>1279.3968126417305</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>225.89213287039405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1062.6951821245525</v>
       </c>
       <c r="B24">
         <v>1842.4856381468085</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>82.947213971479798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>209.13856665587014</v>
       </c>
       <c r="B25">
         <v>376.94879266711257</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>113.44491440584073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>816.86033744578299</v>
       </c>
       <c r="B26">
         <v>77.111115409665999</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5358.6679975083171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1097.9787873117684</v>
       </c>
       <c r="B27">
         <v>220.19196564902123</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>58.803254715400463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>965.64881788769083</v>
       </c>
       <c r="B28">
         <v>269.54326582856231</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>260.54709154766317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>921.87922246905521</v>
       </c>
       <c r="B29">
         <v>835.85118377844515</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>203.6717821177281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>128.7660302444211</v>
       </c>
       <c r="B30">
         <v>149.11246326241127</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>265.07027376910264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>136.05317056692138</v>
       </c>
       <c r="B31">
         <v>607.24392042065779</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>345.49898453816445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>48.273791471022641</v>
       </c>
       <c r="B32">
         <v>105.68851194093359</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>104.6751717930136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>273.66263050842252</v>
       </c>
       <c r="B33">
         <v>109.23089392560836</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>68.329405730533367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>416.65540011359252</v>
       </c>
       <c r="B34">
         <v>327.75193059902591</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>160.5091910730176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>439.65982634330533</v>
       </c>
       <c r="B35">
         <v>359.23145201842794</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>163.86053316942341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1399.6737136532395</v>
       </c>
       <c r="B36">
         <v>1544.2289745360265</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>531.99168167310359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>380.92210714978472</v>
       </c>
       <c r="B37">
         <v>418.57104422986805</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>46.942016262882142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>274.40876954866911</v>
       </c>
       <c r="B38">
         <v>110.63260748196289</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>159.23440579921328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>325.56463449680746</v>
       </c>
       <c r="B39">
         <v>292.83959102458499</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>113.72894733620301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>54.331394558626826</v>
       </c>
       <c r="B40">
         <v>1110.6815833477244</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>744.04509883765877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>392.46227593570308</v>
       </c>
       <c r="B41">
         <v>551.78760211882354</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>224.41242259378564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>545.09553889488529</v>
       </c>
       <c r="B42">
         <v>340.76786122803617</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>268.72760405871361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>217.72596745346115</v>
       </c>
       <c r="B43">
         <v>206.72594016683817</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>135.25711848068877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1423.8175812387767</v>
       </c>
       <c r="B44">
         <v>561.75650742124139</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>187.89376781094867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>372.76203995958917</v>
       </c>
       <c r="B45">
         <v>388.99273272882323</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>233.5135551461384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>334.9639091478291</v>
       </c>
       <c r="B46">
         <v>438.9722627811995</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>51.13615847776105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>309.55822242523999</v>
       </c>
       <c r="B47">
         <v>308.67418836802949</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>242.75865789689698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>610.67372264642222</v>
       </c>
       <c r="B48">
         <v>232.65583380127734</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>361.93790454455956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>578.99089091795668</v>
       </c>
       <c r="B49">
         <v>447.70456708766295</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>204.24147580917403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>152.85235239759641</v>
       </c>
       <c r="B50">
         <v>336.23336002508512</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>136.86445181394473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>276.55406890855915</v>
       </c>
       <c r="B51">
         <v>200.96221777731864</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>398.70533643903451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1034.7076925294657</v>
       </c>
       <c r="B52">
         <v>324.23282677528562</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>35.837263721126227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>193.27383040064308</v>
       </c>
       <c r="B53">
         <v>96.097071064551727</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>476.16138808071042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>174.67337363559537</v>
       </c>
       <c r="B54">
         <v>162.71886518664184</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>389.02315538207284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>179.61844292994411</v>
       </c>
       <c r="B55">
         <v>496.54418098450014</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>352.51787408860872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>679.54687956581824</v>
       </c>
       <c r="B56">
         <v>217.4641551600908</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>572.3550149539177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>195.48603429457012</v>
       </c>
       <c r="B57">
         <v>614.41116987838018</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>83.052129353280222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>184.41843539328337</v>
       </c>
       <c r="B58">
         <v>71.189354260608468</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>151.18084098533325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1727.7821091423334</v>
       </c>
       <c r="B59">
         <v>2008.9414963047445</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>323.08532054171104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>229.84137024655035</v>
       </c>
       <c r="B60">
         <v>205.34543115725023</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>185.2535526837807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>250.91643820979994</v>
       </c>
       <c r="B61">
         <v>145.19259197736244</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>106.09015401974783</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>113.80514253294794</v>
       </c>
       <c r="B62">
         <v>161.61471005934092</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>185.00269291138164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>167.63896935567308</v>
       </c>
       <c r="B63">
         <v>120.8221650828423</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>85.741034010410914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>69.116520430623581</v>
       </c>
       <c r="B64">
         <v>1311.1952605705908</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>652.21707044179755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>151.58315684964575</v>
       </c>
       <c r="B65">
         <v>136.47684487492231</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>373.67707282607932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>613.96473149026372</v>
       </c>
       <c r="B66">
         <v>1871.9799674075543</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>14809.972877809972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65.673669623559661</v>
       </c>
       <c r="B67">
         <v>69.52034921987449</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>133.82224093694566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>105.45197361735048</v>
       </c>
       <c r="B68">
         <v>80.719146158251277</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>251.80782104352272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>816.86033744578299</v>
       </c>
       <c r="B69">
         <v>163.03566413387125</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>133.06565696596417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>54.331394558626826</v>
       </c>
       <c r="B70">
         <v>161.22349791993327</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>457.52493923349601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>94.377485293831739</v>
       </c>
       <c r="B71">
         <v>54.440205495627772</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>134.84257473493412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>465.86382012580873</v>
       </c>
       <c r="B72">
         <v>466.42603361159837</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>115.27995318571632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>152.85235239759641</v>
       </c>
       <c r="B73">
         <v>404.96659423033151</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>3571.4904413068298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>188.81677890317968</v>
       </c>
       <c r="B74">
         <v>1172.0842130476206</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1467.4656695062847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>679.54687956581824</v>
       </c>
       <c r="B75">
         <v>42.392202380139089</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1136.849486141376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>674.77426811995281</v>
       </c>
       <c r="B76">
         <v>348.93105970285058</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>526.75866053598588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>553.74024782014385</v>
       </c>
       <c r="B77">
         <v>446.16025281310277</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>75.165634690516313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>353.2685080307553</v>
       </c>
       <c r="B78">
         <v>347.45913008528601</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>63.283667760863146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>545.09553889488529</v>
       </c>
       <c r="B79">
         <v>136.29137884733439</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>2729.143040590036</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>187.1971926932643</v>
       </c>
       <c r="B80">
         <v>7342.3921637220401</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>14824.323764916691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>383.77808041768623</v>
       </c>
       <c r="B81">
         <v>482.1356270915885</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>695.62553332888876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>149.25348420652551</v>
       </c>
       <c r="B82">
         <v>105.93898315347256</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>99.528070339120518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>330.50595773754799</v>
       </c>
       <c r="B83">
         <v>176.95201660802246</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>107.16072071101756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>89.891434642314593</v>
       </c>
       <c r="B84">
         <v>124.71665959921577</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>66.204617619713545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>252.03185242966251</v>
       </c>
       <c r="B85">
         <v>130.84394755000417</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>169.54592441811812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>603.65297698936092</v>
       </c>
       <c r="B86">
         <v>1278.0151251233765</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1855.3326954348984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>696.75235841376332</v>
       </c>
       <c r="B87">
         <v>893.91449795663732</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>86.891437461189696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>603.65297698936092</v>
       </c>
       <c r="B88">
         <v>749.72726704377988</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>66.915592483345065</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>561.87080761603727</v>
       </c>
       <c r="B89">
         <v>672.48983313306803</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>76.748618130886641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>157.63044783641746</v>
       </c>
       <c r="B90">
         <v>2647.3182257726448</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>2889.9817903173771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>149.25348420652551</v>
       </c>
       <c r="B91">
         <v>3152.5947746966872</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>6148.1391984159764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>250.91643820979994</v>
       </c>
       <c r="B92">
         <v>45.399625683140606</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>2294.2269463621556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>71.811454966108514</v>
       </c>
       <c r="B93">
         <v>92.053362334302577</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>51.869931312899503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>303.29271582233957</v>
       </c>
       <c r="B94">
         <v>400.43286455973589</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>180.69882251811921</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1535.998613857606</v>
       </c>
       <c r="B95">
         <v>1522.7235519833714</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>120.24099369651071</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>149.25348420652551</v>
       </c>
       <c r="B96">
         <v>1137.1142918505784</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>1665.2022897403235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>301.00214854907233</v>
       </c>
       <c r="B97">
         <v>249.06413391574213</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>92.96112726645039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>150.49622657130354</v>
       </c>
       <c r="B98">
         <v>1292.4472257227842</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1434.4389208812911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>603.65297698936092</v>
       </c>
       <c r="B99">
         <v>1806.4778834390163</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>2001.7734309749542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>481.24292117233318</v>
       </c>
       <c r="B100">
         <v>1744.4746614668986</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>47.640038874502579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>267.58699043799544</v>
       </c>
       <c r="B101">
         <v>1274.6669946084614</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>1138.5603361865105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>155.24517909450628</v>
       </c>
       <c r="B102">
         <v>306.37958007345208</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>127.60089229038861</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1027.9727815690085</v>
       </c>
       <c r="B103">
         <v>1730.6431860210055</v>
+      </c>
+      <c r="C103">
+        <v>1690.208403760899</v>
       </c>
     </row>
   </sheetData>
